--- a/Maps/Maps/Enemies.xlsx
+++ b/Maps/Maps/Enemies.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spec\Documents\GitHub\TowerDefense\enemies\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spec\Documents\GitHub\TowerDefense\Maps\Maps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A0E4E36-B7BF-4FEB-BFDE-2C212C34513F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFD03F39-7C9A-4E69-85BF-EAED0313A393}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9765" yWindow="3540" windowWidth="28800" windowHeight="15435" xr2:uid="{7C7806C9-AC08-4287-BFE3-355EE0D4C54D}"/>
+    <workbookView xWindow="38280" yWindow="-8925" windowWidth="29040" windowHeight="15840" xr2:uid="{7C7806C9-AC08-4287-BFE3-355EE0D4C54D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="86">
   <si>
     <t>maxArmor</t>
   </si>
@@ -302,6 +302,9 @@
   </si>
   <si>
     <t>hit,stoneskin,5,5,10</t>
+  </si>
+  <si>
+    <t>Jester</t>
   </si>
 </sst>
 </file>
@@ -438,7 +441,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -474,6 +477,7 @@
     <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -927,8 +931,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1BBA0FDC-C389-4E24-9987-C97DC7FF1B39}" name="Table1" displayName="Table1" ref="A1:O51" tableType="xml" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14" tableBorderDxfId="13" connectionId="3">
-  <autoFilter ref="A1:O51" xr:uid="{BB7B5203-2FDA-44AD-8D6D-FF5DC36F0FBF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1BBA0FDC-C389-4E24-9987-C97DC7FF1B39}" name="Table1" displayName="Table1" ref="A1:O52" tableType="xml" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14" tableBorderDxfId="13" connectionId="3">
+  <autoFilter ref="A1:O52" xr:uid="{BB7B5203-2FDA-44AD-8D6D-FF5DC36F0FBF}"/>
   <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{2550C9AA-BC88-494A-A101-FBB680E5CA21}" uniqueName="currentRound" name="round">
       <xmlColumnPr mapId="4" xpath="/Root/Row/currentRound" xmlDataType="integer"/>
@@ -1278,11 +1282,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{213EF013-6C3B-49C1-962D-F4582BD477E0}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AC51"/>
+  <dimension ref="A1:AC52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G2" sqref="G2"/>
+      <selection pane="topRight" activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2822,7 +2826,7 @@
         <v>306</v>
       </c>
       <c r="Q22" s="3">
-        <f t="shared" ref="Q22:Q51" si="6">SUM(P21+Q21)</f>
+        <f t="shared" ref="Q22:Q52" si="6">SUM(P21+Q21)</f>
         <v>3909</v>
       </c>
       <c r="R22" s="5">
@@ -2830,7 +2834,7 @@
         <v>35181</v>
       </c>
       <c r="S22" s="23">
-        <f t="shared" ref="S22:S51" si="7">SUM(ROUND((R22 / Q22),2))</f>
+        <f t="shared" ref="S22:S52" si="7">SUM(ROUND((R22 / Q22),2))</f>
         <v>9</v>
       </c>
       <c r="T22">
@@ -3562,7 +3566,7 @@
       <c r="N34" s="29"/>
       <c r="O34" s="29"/>
       <c r="P34" s="3">
-        <f t="shared" ref="P34:P51" si="8">SUM((H34*G34)+I34)</f>
+        <f t="shared" ref="P34:P52" si="8">SUM((H34*G34)+I34)</f>
         <v>435</v>
       </c>
       <c r="Q34" s="3">
@@ -4634,6 +4638,68 @@
       <c r="T51">
         <f>SUM(Table1[[#This Row],[roundEndBonus]]/P51)</f>
         <v>0.3282442748091603</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>85</v>
+      </c>
+      <c r="C52" s="26">
+        <v>11.9</v>
+      </c>
+      <c r="D52" s="16">
+        <v>22000</v>
+      </c>
+      <c r="E52" s="17">
+        <v>4</v>
+      </c>
+      <c r="F52" s="35">
+        <f>SUM(Table1[[#This Row],[goldValue]]*Table1[[#This Row],[numberOfEnemies]])</f>
+        <v>0</v>
+      </c>
+      <c r="G52" s="18">
+        <v>0</v>
+      </c>
+      <c r="H52" s="21">
+        <v>999999</v>
+      </c>
+      <c r="I52" s="21">
+        <v>0</v>
+      </c>
+      <c r="J52" s="21">
+        <v>22</v>
+      </c>
+      <c r="K52" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="L52" s="21">
+        <v>0</v>
+      </c>
+      <c r="M52" s="33"/>
+      <c r="N52" s="33"/>
+      <c r="O52" s="21"/>
+      <c r="P52" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
+        <f t="shared" si="6"/>
+        <v>17948</v>
+      </c>
+      <c r="R52" s="5">
+        <f>SUM(Q52*Table1[[#This Row],[Gold /HP]])</f>
+        <v>213581.2</v>
+      </c>
+      <c r="S52" s="23">
+        <f t="shared" si="7"/>
+        <v>11.9</v>
+      </c>
+      <c r="T52" t="e">
+        <f>SUM(Table1[[#This Row],[roundEndBonus]]/P52)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
